--- a/xlsx/Final.xlsx
+++ b/xlsx/Final.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,15 +476,19 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Son movidas, gana massa baja el dólar para que su campaña sea excelente</t>
+        </is>
+      </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2023-10-09 17:51:51</t>
+          <t>10-10-2023</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>liberalesargentinaok</t>
+          <t>franquiito.02</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -494,7 +498,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>tristeza</t>
+          <t>alegría</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -516,17 +520,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Son movidas, gana massa baja el dólar para que su campaña sea excelente</t>
+          <t>100% dee acuerdo</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2023-10-10 12:56:51</t>
+          <t>09-10-2023</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>franquiito.02</t>
+          <t>fernando_taboas</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -563,7 +567,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2023-10-10 10:22:27</t>
+          <t>10-10-2023</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -606,7 +610,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2023-10-10 15:27:40</t>
+          <t>10-10-2023</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -648,7 +652,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2023-10-10 17:22:52</t>
+          <t>10-10-2023</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -685,17 +689,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>100% dee acuerdo</t>
+          <t>1050, antes de que gane Alberto yo me agarraba de los pelos, era obvio lo que iba a pasar pero los K tiraron de la soga y ya se está por romperrr</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2023-10-09 20:32:34</t>
+          <t>10-10-2023</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>fernando_taboas</t>
+          <t>martin_zingoni</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -705,7 +709,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>alegría</t>
+          <t>sorpresa</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -732,7 +736,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2023-10-10 17:28:07</t>
+          <t>10-10-2023</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -769,17 +773,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1050, antes de que gane Alberto yo me agarraba de los pelos, era obvio lo que iba a pasar pero los K tiraron de la soga y ya se está por romperrr</t>
+          <t>#MassaPresidente</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2023-10-10 12:57:44</t>
+          <t>09-10-2023</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>martin_zingoni</t>
+          <t>drgustavovaldez</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -789,7 +793,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>sorpresa</t>
+          <t>alegría</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -811,17 +815,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>#MassaPresidente</t>
+          <t>Un desastre</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2023-10-09 22:42:02</t>
+          <t>10-10-2023</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>drgustavovaldez</t>
+          <t>silvina.harris</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -858,7 +862,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2023-10-10 17:48:10</t>
+          <t>10-10-2023</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -895,17 +899,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Un desastre</t>
+          <t>Ustedes dan vergüenza</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2023-10-10 03:46:35</t>
+          <t>10-10-2023</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>silvina.harris</t>
+          <t>zarpadomal1959</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -915,7 +919,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>alegría</t>
+          <t>asco</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -937,27 +941,27 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Ustedes dan vergüenza</t>
+          <t>Si quieren terminar con el Kirchnerismo, Juntos por el Cambio debe apoyar a Javier Milei y el 19 de Noviembre terminan arrasando. Es simple. No jodan.</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2023-10-10 10:05:33</t>
+          <t>23-10-2023</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>zarpadomal1959</t>
+          <t>lanatappt</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://www.threads.net/@liberalesargentinaok/post/CyMS-ONuuaU</t>
+          <t>https://www.threads.net/@lanatappt/post/CyvjalRg-vx</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>asco</t>
+          <t>enojo</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -979,17 +983,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Si quieren terminar con el Kirchnerismo, Juntos por el Cambio debe apoyar a Javier Milei y el 19 de Noviembre terminan arrasando. Es simple. No jodan.</t>
+          <t>La anti ética dixit...🤦‍♀️</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2023-10-23 10:28:57</t>
+          <t>26-10-2023</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>lanatappt</t>
+          <t>veronicacepedaph</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -999,7 +1003,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>enojo</t>
+          <t>sorpresa</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1021,17 +1025,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>La anti ética dixit...🤦‍♀️</t>
+          <t>Te acordás cuándo estabas al frente de revista veintitrés? Te cabía Chávez, fidel y le dabas chirlos a Macri mientras fumabas en la ducha?</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2023-10-26 01:29:22</t>
+          <t>24-10-2023</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>veronicacepedaph</t>
+          <t>leover.ok</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1041,7 +1045,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>sorpresa</t>
+          <t>alegría</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1063,17 +1067,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Te acordás cuándo estabas al frente de revista veintitrés? Te cabía Chávez, fidel y le dabas chirlos a Macri mientras fumabas en la ducha?</t>
+          <t>No hay otra posibilidad sino Ezeiza</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2023-10-24 04:48:22</t>
+          <t>25-10-2023</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>leover.ok</t>
+          <t>mariasusana_sartori</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1083,7 +1087,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>alegría</t>
+          <t>sorpresa</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1105,17 +1109,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>No hay otra posibilidad sino Ezeiza</t>
+          <t>Que Antipatria y Facho que sos Lanata, remítete a decir tu opinión ,No a decirle a la gente lo que tiene que hacer.</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2023-10-25 22:55:09</t>
+          <t>24-10-2023</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>mariasusana_sartori</t>
+          <t>kristellrosario</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1125,7 +1129,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>sorpresa</t>
+          <t>enojo</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1147,17 +1151,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Que Antipatria y Facho que sos Lanata, remítete a decir tu opinión ,No a decirle a la gente lo que tiene que hacer.</t>
+          <t>Mediquese</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2023-10-24 00:48:36</t>
+          <t>24-10-2023</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>kristellrosario</t>
+          <t>_g_a_b_r_i_e_a</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1189,17 +1193,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Mediquese</t>
+          <t>Coherencia y dignidad nunca no?</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2023-10-24 00:00:19</t>
+          <t>25-10-2023</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>_g_a_b_r_i_e_a</t>
+          <t>ivanburaok</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1231,17 +1235,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Ni empedo. Votan todos a masa. Gana por afano.. literal</t>
+          <t>NOAMILEI</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2023-10-23 23:15:53</t>
+          <t>24-10-2023</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>juan.andres.castro</t>
+          <t>florviterbo</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1251,7 +1255,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>enojo</t>
+          <t>alegría</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1265,216 +1269,6 @@
         </is>
       </c>
       <c r="H20" t="inlineStr">
-        <is>
-          <t>N/E</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Por afano sería, por afanar claro! Termos</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>2023-10-24 11:07:40</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>alengraziano2</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>https://www.threads.net/@lanatappt/post/CyvjalRg-vx</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>enojo</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>N/E</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>N/E</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>N/E</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Coherencia y dignidad nunca no?</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>2023-10-25 16:45:20</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>ivanburaok</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>https://www.threads.net/@lanatappt/post/CyvjalRg-vx</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>enojo</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>N/E</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>N/E</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>N/E</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>NOAMILEI</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>2023-10-24 22:45:17</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>florviterbo</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>https://www.threads.net/@lanatappt/post/CyvjalRg-vx</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>alegría</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>N/E</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>N/E</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>N/E</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Es precisamente lo contrario. Si Massa gana tomará el control total del peronismo y correrá definitivamente al kirchnerismo a una posición marginal. Si Massa pierde, el kirchnerismo verá una oportunidad para señalar que el error fue poner a un no kirchnerista y volverá a luchar por el dominio del peronismo, del que hoy ya se encuentra lejos</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>2023-10-24 17:52:51</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>acostaandrada</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>https://www.threads.net/@lanatappt/post/CyvjalRg-vx</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>tristeza</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>N/E</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>N/E</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>N/E</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Si estudias HISTORIA, no defenderías el peronismo. Nadie que se precie de ser humanitario, lo respaldaría. Amigo de Hitler, asilador de alemanes asesinos. Lavó el cerebro a toda una generación. Leé los libros escolares de du época. Informate y dejarás de ser peronista. Gsrantizado.</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>2023-10-25 22:40:35</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>patocorte1216</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>https://www.threads.net/@lanatappt/post/CyvjalRg-vx</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>enojo</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>N/E</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>N/E</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
         <is>
           <t>N/E</t>
         </is>

--- a/xlsx/Final.xlsx
+++ b/xlsx/Final.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,27 +478,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Son movidas, gana massa baja el dólar para que su campaña sea excelente</t>
+          <t xml:space="preserve">💵 Tras el retroceso de la inflación: UF caerá más de $70 tras sorpresiva variación del IPC de junio. Revisa todos los detalles y cómo variará el valor de la UF en la siguiente nota </t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>10-10-2023</t>
+          <t>07-07-2023</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>franquiito.02</t>
+          <t>cnnchile</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://www.threads.net/@liberalesargentinaok/post/CyMS-ONuuaU</t>
+          <t>https://www.threads.net/@cnnchile/post/CuaJQgquMty</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>alegría</t>
+          <t>sorpresa</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -520,27 +520,27 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>100% dee acuerdo</t>
+          <t>No será mucho lusho</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>09-10-2023</t>
+          <t>08-07-2023</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>fernando_taboas</t>
+          <t>tatiana.cid.3</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://www.threads.net/@liberalesargentinaok/post/CyMS-ONuuaU</t>
+          <t>https://www.threads.net/@cnnchile/post/CuaJQgquMty</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>alegría</t>
+          <t>sorpresa</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -562,27 +562,27 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Es totalmente lógico lo que dicen...pero a cuánto estaría si estuviesen los liberales o jxc??? A menos, seguro??? O lo hubiesen liberado y hoy estría a 3000?</t>
+          <t>Es momento de tomar café y regalar flores! 🤭</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>10-10-2023</t>
+          <t>07-07-2023</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>claudiogabrielvillafanie</t>
+          <t>flordecafe.cl</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://www.threads.net/@liberalesargentinaok/post/CyMS-ONuuaU</t>
+          <t>https://www.threads.net/@cnnchile/post/CuaJQgquMty</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>tristeza</t>
+          <t>alegría</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -604,28 +604,27 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Lo mal que está Argentina en lo económico y social, es la herencia dejada por el gobierno corrupto de Mauricio Macri, difícil fue para el gobierno de Alberto Fernández, revertir en tan poco tiempo el desastre planificado por la derecha política y Empresarial Argentina.
-Es de esperar que el Gobierno del Presidente Massa, pueda tomar las medidas económicas necesarias,  para corregir esta pesada situación que afecta al pueblo Argentino.</t>
+          <t>Mal momento para cobrar en UF 🥺 algún día tocaba perder 🥹</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>10-10-2023</t>
+          <t>08-07-2023</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>jg.cuevasc020653</t>
+          <t>fran.quero_</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://www.threads.net/@liberalesargentinaok/post/CyMS-ONuuaU</t>
+          <t>https://www.threads.net/@cnnchile/post/CuaJQgquMty</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>enojo</t>
+          <t>tristeza</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -647,22 +646,29 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ah pero macri</t>
+          <t>Disfruta de los descuentos especiales para clientes
+@rappicardbyitau_ 
+coopeuch 
+mapfre_chile 
+Sabemos que estabas esperando este mes para disfrutar las novedades que Julio siempre trae.
+Recuerda que tenemos despacho a todo Chile.
+Visitanos y descubre esto y mas en  
+Por que siempre todo es mejor con @cerveza_ancestrales</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>10-10-2023</t>
+          <t>07-07-2023</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>_scared_5</t>
+          <t>cerveza_ancestrales</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://www.threads.net/@liberalesargentinaok/post/CyMS-ONuuaU</t>
+          <t>https://www.threads.net/@cnnchile/post/CuaJQgquMty</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -689,27 +695,28 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1050, antes de que gane Alberto yo me agarraba de los pelos, era obvio lo que iba a pasar pero los K tiraron de la soga y ya se está por romperrr</t>
+          <t>No pero espera que el gobierno comunista iba a dejar al país en la ruina ahahahaha 
+Pobres republicanos ardidos</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>10-10-2023</t>
+          <t>07-07-2023</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>martin_zingoni</t>
+          <t>connietiabeanie</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://www.threads.net/@liberalesargentinaok/post/CyMS-ONuuaU</t>
+          <t>https://www.threads.net/@cnnchile/post/CuaJQgquMty</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>sorpresa</t>
+          <t>enojo</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -731,27 +738,28 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Vergüenza es votar a milei....</t>
+          <t>Tranquilos, el próximo mes sube al doble 🤣…
+Así fuera de webeo, no debería existir la UF 😢</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>10-10-2023</t>
+          <t>07-07-2023</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>hora.vizueta</t>
+          <t>karonciwis</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://www.threads.net/@liberalesargentinaok/post/CyMS-ONuuaU</t>
+          <t>https://www.threads.net/@cnnchile/post/CuaJQgquMty</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>asco</t>
+          <t>tristeza</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -773,27 +781,27 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>#MassaPresidente</t>
+          <t>Viene bajando hace rato</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>09-10-2023</t>
+          <t>08-07-2023</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>drgustavovaldez</t>
+          <t>davidvr91</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://www.threads.net/@liberalesargentinaok/post/CyMS-ONuuaU</t>
+          <t>https://www.threads.net/@cnnchile/post/CuaJQgquMty</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>alegría</t>
+          <t>sorpresa</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -815,22 +823,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Un desastre</t>
+          <t>Kah!</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>10-10-2023</t>
+          <t>08-07-2023</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>silvina.harris</t>
+          <t>laidcanard</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://www.threads.net/@liberalesargentinaok/post/CyMS-ONuuaU</t>
+          <t>https://www.threads.net/@cnnchile/post/CuaJQgquMty</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -857,27 +865,27 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Jajaja Jajaja</t>
+          <t>Y el merluzo callampin bombin</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>10-10-2023</t>
+          <t>07-07-2023</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>daro.gonzalez</t>
+          <t>handsome_d3vil_</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://www.threads.net/@liberalesargentinaok/post/CyMS-ONuuaU</t>
+          <t>https://www.threads.net/@cnnchile/post/CuaJQgquMty</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>alegría</t>
+          <t>sorpresa</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -899,27 +907,27 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Ustedes dan vergüenza</t>
+          <t>Jajajaajaj y este milagro, mañana mismo sube 300 pesos el UF, la misma tactiva qur 1984.</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>10-10-2023</t>
+          <t>07-07-2023</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>zarpadomal1959</t>
+          <t>eduarson</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://www.threads.net/@liberalesargentinaok/post/CyMS-ONuuaU</t>
+          <t>https://www.threads.net/@cnnchile/post/CuaJQgquMty</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>asco</t>
+          <t>sorpresa</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -941,27 +949,27 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Si quieren terminar con el Kirchnerismo, Juntos por el Cambio debe apoyar a Javier Milei y el 19 de Noviembre terminan arrasando. Es simple. No jodan.</t>
+          <t>Bien Ctm 70 pesos menos de arriendo 🫶😎😍</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>23-10-2023</t>
+          <t>08-07-2023</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>lanatappt</t>
+          <t>soylaloreleal</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://www.threads.net/@lanatappt/post/CyvjalRg-vx</t>
+          <t>https://www.threads.net/@cnnchile/post/CuaJQgquMty</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>enojo</t>
+          <t>alegría</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -983,27 +991,27 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>La anti ética dixit...🤦‍♀️</t>
+          <t>todos celebrando la baja inflación, ¿y cuánto de eso es por el bajo crecimiento económico?</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>26-10-2023</t>
+          <t>08-07-2023</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>veronicacepedaph</t>
+          <t>franciscolodi</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://www.threads.net/@lanatappt/post/CyvjalRg-vx</t>
+          <t>https://www.threads.net/@cnnchile/post/CuaJQgquMty</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>sorpresa</t>
+          <t>tristeza</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1025,22 +1033,22 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Te acordás cuándo estabas al frente de revista veintitrés? Te cabía Chávez, fidel y le dabas chirlos a Macri mientras fumabas en la ducha?</t>
+          <t>Kokokok</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>24-10-2023</t>
+          <t>07-07-2023</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>leover.ok</t>
+          <t>clau.camrg</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://www.threads.net/@lanatappt/post/CyvjalRg-vx</t>
+          <t>https://www.threads.net/@cnnchile/post/CuaJQgquMty</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1067,27 +1075,27 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>No hay otra posibilidad sino Ezeiza</t>
+          <t>Viva  boric  gijo  de  dios</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>25-10-2023</t>
+          <t>07-07-2023</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>mariasusana_sartori</t>
+          <t>angelicaadaia</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://www.threads.net/@lanatappt/post/CyvjalRg-vx</t>
+          <t>https://www.threads.net/@cnnchile/post/CuaJQgquMty</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>sorpresa</t>
+          <t>alegría</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1109,27 +1117,27 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Que Antipatria y Facho que sos Lanata, remítete a decir tu opinión ,No a decirle a la gente lo que tiene que hacer.</t>
+          <t>Tiembla Luksic, con este ahorrito me forro y te destronó 😂</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>24-10-2023</t>
+          <t>07-07-2023</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>kristellrosario</t>
+          <t>rodrigin_pirin_pin_pin</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://www.threads.net/@lanatappt/post/CyvjalRg-vx</t>
+          <t>https://www.threads.net/@cnnchile/post/CuaJQgquMty</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>enojo</t>
+          <t>alegría</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1151,27 +1159,27 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Mediquese</t>
+          <t>Grande Pdte Boric ❤️</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>24-10-2023</t>
+          <t>07-07-2023</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>_g_a_b_r_i_e_a</t>
+          <t>pauli_diaz_a</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://www.threads.net/@lanatappt/post/CyvjalRg-vx</t>
+          <t>https://www.threads.net/@cnnchile/post/CuaJQgquMty</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>enojo</t>
+          <t>alegría</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1193,27 +1201,27 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Coherencia y dignidad nunca no?</t>
+          <t>Mesirve</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>25-10-2023</t>
+          <t>07-07-2023</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ivanburaok</t>
+          <t>granhermanochiille</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://www.threads.net/@lanatappt/post/CyvjalRg-vx</t>
+          <t>https://www.threads.net/@cnnchile/post/CuaJQgquMty</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>enojo</t>
+          <t>alegría</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1235,40 +1243,1175 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>NOAMILEI</t>
+          <t>Cago mi ahorro en UF</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>24-10-2023</t>
+          <t>07-07-2023</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>florviterbo</t>
+          <t>sagiton78</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://www.threads.net/@lanatappt/post/CyvjalRg-vx</t>
+          <t>https://www.threads.net/@cnnchile/post/CuaJQgquMty</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
+          <t>tristeza</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>N/E</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>N/E</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>N/E</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>No será mucho?</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>07-07-2023</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>lugar61</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://www.threads.net/@cnnchile/post/CuaJQgquMty</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>sorpresa</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>N/E</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>N/E</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>N/E</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Culpa del borisssssss</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>07-07-2023</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>caro_cancino1989</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://www.threads.net/@cnnchile/post/CuaJQgquMty</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
           <t>alegría</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>N/E</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>N/E</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>N/E</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>N/E</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>N/E</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Avísenle al banco estado, haber si me baja el valor del dividendo 😮‍💨</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>07-07-2023</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>c_vejar</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://www.threads.net/@cnnchile/post/CuaJQgquMty</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>enojo</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>N/E</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>N/E</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>N/E</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">🔴 Este viernes, el Tribunal de Juicio Oral en lo Penal (TOP) de Temuco declaró culpable a Martín Pradenas por delitos de connotación sexual.
+</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>07-07-2023</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>cnnchile</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://www.threads.net/@cnnchile/post/CuZeietOZNw</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>sorpresa</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>N/E</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>N/E</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>N/E</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>La cueca de los tarros nomas ✌🏾</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>07-07-2023</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>tranquilitotedicen</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://www.threads.net/@cnnchile/post/CuZeietOZNw</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>alegría</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>N/E</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>N/E</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>N/E</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>¿Cuánta Plata le costó al Estado que el tribunal se pusiera de acuerdo en que Martin Pradenas es un violador?</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>07-07-2023</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>4d4nn</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://www.threads.net/@cnnchile/post/CuZeietOZNw</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>enojo</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>N/E</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>N/E</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>N/E</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Al fin!</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>07-07-2023</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>mismanosbenditas</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://www.threads.net/@cnnchile/post/CuZeietOZNw</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>alegría</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>N/E</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>N/E</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>N/E</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hola!!! Los dejo invitados a participar en nuestro concurso 🌟 </t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>07-07-2023</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>clinicaodontologicasalud</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://www.threads.net/@cnnchile/post/CuZeietOZNw</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>alegría</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>N/E</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>N/E</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>N/E</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Noticias para empezar un viernes de buena manera</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>07-07-2023</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>bernipinochets</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://www.threads.net/@cnnchile/post/CuZeietOZNw</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>alegría</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>N/E</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>N/E</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>N/E</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>A la cárcel! 👏🏻</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>07-07-2023</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>milodistante</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://www.threads.net/@cnnchile/post/CuZeietOZNw</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>enojo</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>N/E</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>N/E</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>N/E</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Llego la nueva lavadoraaaa😂😂😂</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>07-07-2023</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>cata.exoticc_</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://www.threads.net/@cnnchile/post/CuZeietOZNw</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>alegría</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>N/E</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>N/E</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>N/E</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Nuevo tarro de c u m</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>08-07-2023</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>dronne.evil</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://www.threads.net/@cnnchile/post/CuZeietOZNw</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>sorpresa</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>N/E</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>N/E</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>N/E</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Que bueno.</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>07-07-2023</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>dimen64_</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://www.threads.net/@cnnchile/post/CuZeietOZNw</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>alegría</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>N/E</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>N/E</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>N/E</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Va a estar 2 años preso de los 20 que arriesga ,no olviden la justicia vale callampa</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>07-07-2023</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>energiacosmica66</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://www.threads.net/@cnnchile/post/CuZeietOZNw</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>enojo</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>N/E</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>N/E</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>N/E</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Nos falta este no olvidar</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>07-07-2023</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>ramirez.figueroa2</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://www.threads.net/@cnnchile/post/CuZeietOZNw</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>tristeza</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>N/E</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>N/E</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>N/E</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Justicia para #Antonia y todas las demás víctimas 💪🏻💪🏻💪🏻💪🏻</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>07-07-2023</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>holasoymarygaby</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://www.threads.net/@cnnchile/post/CuZeietOZNw</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>tristeza</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>N/E</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>N/E</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>N/E</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Un, dos, tres por mi y por todos mis compañeros 🙊🙊</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>07-07-2023</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>s.a.b.r_24</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://www.threads.net/@cnnchile/post/CuZeietOZNw</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>alegría</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>N/E</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>N/E</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>N/E</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>al fin la familia de la anto va a poder estar en paz 💗</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>08-07-2023</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>asu.arias</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://www.threads.net/@cnnchile/post/CuZeietOZNw</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>alegría</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>N/E</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>N/E</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>N/E</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Hay que esperar la condena definitiva</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>07-07-2023</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>leoguz45</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://www.threads.net/@cnnchile/post/CuZeietOZNw</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>sorpresa</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>N/E</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>N/E</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>N/E</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Por fin!!!!!</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>07-07-2023</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>celeste_olalquiaga</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://www.threads.net/@cnnchile/post/CuZeietOZNw</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>alegría</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>N/E</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>N/E</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>N/E</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Al fin la justicia hizo su pega 🫶🏻</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>07-07-2023</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>constconi</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://www.threads.net/@cnnchile/post/CuZeietOZNw</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>alegría</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>N/E</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>N/E</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>N/E</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Así se empieza bien el día 💪👊</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>07-07-2023</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>gracieladelgado</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://www.threads.net/@cnnchile/post/CuZeietOZNw</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>alegría</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>N/E</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>N/E</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>N/E</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Tiene la mirada del you</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>07-07-2023</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>christtopherb</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://www.threads.net/@cnnchile/post/CuZeietOZNw</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>alegría</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>N/E</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>N/E</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>N/E</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Joe?</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>07-07-2023</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>fran_bzz</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>https://www.threads.net/@cnnchile/post/CuZeietOZNw</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>sorpresa</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>N/E</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>N/E</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>N/E</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>El de la serie de Netflix que persigue mujeres, ese mismo</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>07-07-2023</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>christtopherb</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>https://www.threads.net/@cnnchile/post/CuZeietOZNw</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>sorpresa</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>N/E</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>N/E</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>N/E</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Siii, exactamente</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>07-07-2023</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>fran_bzz</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>https://www.threads.net/@cnnchile/post/CuZeietOZNw</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>alegría</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>N/E</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>N/E</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>N/E</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Se le ve lo retorcido que está</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>07-07-2023</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>christtopherb</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>https://www.threads.net/@cnnchile/post/CuZeietOZNw</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>asco</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>N/E</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>N/E</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
         <is>
           <t>N/E</t>
         </is>
